--- a/data/octanol_30pct_avoidance_210907.xlsx
+++ b/data/octanol_30pct_avoidance_210907.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{159AF2D6-CFFC-4B15-967C-D0BE24E09B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E7392-72BD-4D02-9983-67782C41E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBB891B6-85CA-40A8-968A-46E23DA95E35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="10">
   <si>
     <t>genotype</t>
   </si>
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,16 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAA6A0D-23F4-4A73-9BE2-B9E334A263C6}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1386,8 +1390,708 @@
         <v>44446</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>2.76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>7.93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>6.47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>3.71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3.23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5.73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>3.94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>4.47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>6.68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>9.25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>5.6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>6.37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>2.15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>7.39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>6.13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>6.04</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>4.83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>7.2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>4.22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>5.25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>3.53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>5.55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>6.56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>5.16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>3.25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>3.84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>5.68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>3.21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>2.06</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>1.51</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>2.71</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>3.96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>1.62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2.84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>1.85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>2.96</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>3.88</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>3.57</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>4.09</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>6.27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1">
+        <v>44468</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/octanol_30pct_avoidance_210907.xlsx
+++ b/data/octanol_30pct_avoidance_210907.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E7392-72BD-4D02-9983-67782C41E146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F573A-FBC1-4C56-A781-DD873F9D6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBB891B6-85CA-40A8-968A-46E23DA95E35}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="10">
   <si>
     <t>genotype</t>
   </si>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAA6A0D-23F4-4A73-9BE2-B9E334A263C6}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133:E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1785,6 +1785,9 @@
       <c r="A80" t="s">
         <v>8</v>
       </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
       <c r="C80">
         <v>6.56</v>
       </c>
@@ -1799,6 +1802,9 @@
       <c r="A81" t="s">
         <v>8</v>
       </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
       <c r="C81">
         <v>5.16</v>
       </c>
@@ -1813,6 +1819,9 @@
       <c r="A82" t="s">
         <v>8</v>
       </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
       <c r="C82">
         <v>3.25</v>
       </c>
@@ -1827,6 +1836,9 @@
       <c r="A83" t="s">
         <v>8</v>
       </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
       <c r="C83">
         <v>4.2300000000000004</v>
       </c>
@@ -1841,6 +1853,9 @@
       <c r="A84" t="s">
         <v>8</v>
       </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
       <c r="C84">
         <v>3.84</v>
       </c>
@@ -1855,6 +1870,9 @@
       <c r="A85" t="s">
         <v>8</v>
       </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
       <c r="C85">
         <v>5.68</v>
       </c>
@@ -1869,6 +1887,9 @@
       <c r="A86" t="s">
         <v>8</v>
       </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
       <c r="C86">
         <v>3.21</v>
       </c>
@@ -1883,6 +1904,9 @@
       <c r="A87" t="s">
         <v>8</v>
       </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
       <c r="C87">
         <v>5.1100000000000003</v>
       </c>
@@ -1897,6 +1921,9 @@
       <c r="A88" t="s">
         <v>8</v>
       </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
       <c r="C88">
         <v>2.06</v>
       </c>
@@ -1911,6 +1938,9 @@
       <c r="A89" t="s">
         <v>8</v>
       </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
       <c r="C89">
         <v>1.51</v>
       </c>
@@ -1925,6 +1955,9 @@
       <c r="A90" t="s">
         <v>8</v>
       </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
       <c r="C90">
         <v>2.71</v>
       </c>
@@ -1939,6 +1972,9 @@
       <c r="A91" t="s">
         <v>8</v>
       </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
       <c r="C91">
         <v>3.96</v>
       </c>
@@ -1953,6 +1989,9 @@
       <c r="A92" t="s">
         <v>8</v>
       </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
       <c r="C92">
         <v>1.62</v>
       </c>
@@ -1967,6 +2006,9 @@
       <c r="A93" t="s">
         <v>8</v>
       </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
       <c r="C93">
         <v>2.84</v>
       </c>
@@ -1981,6 +2023,9 @@
       <c r="A94" t="s">
         <v>8</v>
       </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
       <c r="C94">
         <v>1.85</v>
       </c>
@@ -1995,6 +2040,9 @@
       <c r="A95" t="s">
         <v>8</v>
       </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
       <c r="C95">
         <v>2.96</v>
       </c>
@@ -2009,6 +2057,9 @@
       <c r="A96" t="s">
         <v>8</v>
       </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
       <c r="C96">
         <v>8.3800000000000008</v>
       </c>
@@ -2023,6 +2074,9 @@
       <c r="A97" t="s">
         <v>8</v>
       </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
       <c r="C97">
         <v>3.88</v>
       </c>
@@ -2037,6 +2091,9 @@
       <c r="A98" t="s">
         <v>8</v>
       </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
       <c r="C98">
         <v>2.2000000000000002</v>
       </c>
@@ -2051,6 +2108,9 @@
       <c r="A99" t="s">
         <v>8</v>
       </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
       <c r="C99">
         <v>3.57</v>
       </c>
@@ -2065,6 +2125,9 @@
       <c r="A100" t="s">
         <v>8</v>
       </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
       <c r="C100">
         <v>4.09</v>
       </c>
@@ -2079,6 +2142,9 @@
       <c r="A101" t="s">
         <v>8</v>
       </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
       <c r="C101">
         <v>6.27</v>
       </c>
@@ -2087,6 +2153,1043 @@
       </c>
       <c r="E101" s="1">
         <v>44468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>3.9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>3.41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>4.66</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>4.13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>5.3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>3.82</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>3.91</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>5.94</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>3.95</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>3.26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>6.93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>6.29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>2.87</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>5.75</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>3.98</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>6.75</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>2.31</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>3.36</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>4.47</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>3.86</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>4.32</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>2.95</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>4.18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>5.09</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>3.78</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>5.47</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>4.17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>3.1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>6.05</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>5.44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>4.93</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>3.28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>3.63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>5.59</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>5.3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <v>7.43</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>6.13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>5.67</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>6.71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>2.73</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>5.39</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>7.41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>6.38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>5.17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>4.91</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>7.15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>3.24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>5.79</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>6.37</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>4.99</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>5.6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>4.29</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="1">
+        <v>44475</v>
       </c>
     </row>
   </sheetData>
